--- a/Keyword_datadriven.xlsx
+++ b/Keyword_datadriven.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharmi\eclipse-workspace\Keyword_Datadriven_framework\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharmi\eclipse-workspace\Keyword_Datadriven_framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94F7144-CCE8-4295-A3A1-EA926E3B5F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC79FDE-EC18-43B8-AC0F-A300C1E174FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
